--- a/course_materials/Fall2019_outside_class_schedule.xlsx
+++ b/course_materials/Fall2019_outside_class_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/OneDrive - University of Nevada, Reno/Teaching/Bayes_course/git_public/course_materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/OneDrive - University of Nevada, Reno/Teaching/STAT_445-645/git_public/course_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A569A9B-E8F7-274B-BA99-6625AA89EFAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2991E0A2-35CE-274D-8A9B-F6D25AE4465B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21040" xr2:uid="{5B157F0B-9104-0946-B9B4-284B01756121}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" xr2:uid="{5B157F0B-9104-0946-B9B4-284B01756121}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
   <si>
     <t>Week</t>
   </si>
@@ -39,22 +39,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Read Ch. 1 - 3, syllabus, websites</t>
-  </si>
-  <si>
-    <t>Ch. 4</t>
-  </si>
-  <si>
     <t>Online module</t>
-  </si>
-  <si>
-    <t>Datacamp Introduction to R</t>
-  </si>
-  <si>
-    <t>DataCamp Fundamentals of Bayesian Analysis in R</t>
   </si>
   <si>
     <t>Activity</t>
@@ -66,91 +51,7 @@
     <t>Final exam</t>
   </si>
   <si>
-    <t>Ch. 5</t>
-  </si>
-  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>Ch. 6</t>
-  </si>
-  <si>
-    <t>HW 1, Ch. 4</t>
-  </si>
-  <si>
-    <t>HW 2, Ch. 5</t>
-  </si>
-  <si>
-    <t>Midterm 1</t>
-  </si>
-  <si>
-    <t>Ch. 7</t>
-  </si>
-  <si>
-    <t>HW 3, Ch. 6</t>
-  </si>
-  <si>
-    <t>Ch. 8</t>
-  </si>
-  <si>
-    <t>HW 4, Ch. 7</t>
-  </si>
-  <si>
-    <t>Ch. 9</t>
-  </si>
-  <si>
-    <t>HW 5, Ch. 8</t>
-  </si>
-  <si>
-    <t>Ch. 10</t>
-  </si>
-  <si>
-    <t>HW 6, Ch. 9</t>
-  </si>
-  <si>
-    <t>Midterm 2</t>
-  </si>
-  <si>
-    <t>Ch. 11</t>
-  </si>
-  <si>
-    <t>HW 7, Ch. 10</t>
-  </si>
-  <si>
-    <t>Ch. 12</t>
-  </si>
-  <si>
-    <t>HW 8, Ch. 11</t>
-  </si>
-  <si>
-    <t>Ch. 13</t>
-  </si>
-  <si>
-    <t>HW 9, Ch. 12</t>
-  </si>
-  <si>
-    <t>Midterm 3</t>
-  </si>
-  <si>
-    <t>Ch. 14</t>
-  </si>
-  <si>
-    <t>HW 10, Ch. 13</t>
-  </si>
-  <si>
-    <t>Ch. 20</t>
-  </si>
-  <si>
-    <t>HW 11, Ch. 14</t>
-  </si>
-  <si>
-    <t>HW 12, Ch. 20</t>
-  </si>
-  <si>
-    <t>Midterm 4</t>
-  </si>
-  <si>
-    <t>Hand exercises</t>
   </si>
   <si>
     <t>Computer exercises</t>
@@ -512,7 +413,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +423,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -531,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -541,9 +442,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43488</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>1</v>
       </c>
@@ -556,14 +455,9 @@
       <c r="E2">
         <v>180</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43493</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3">
         <v>1</v>
       </c>
@@ -571,19 +465,14 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>240</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43493</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -594,16 +483,11 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43495</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5">
         <v>2</v>
       </c>
@@ -611,19 +495,14 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>240</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43500</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6">
         <v>3</v>
       </c>
@@ -631,19 +510,14 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>120</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43500</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7">
         <v>3</v>
       </c>
@@ -651,19 +525,14 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43502</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -671,19 +540,14 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43507</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -694,16 +558,11 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43507</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10">
         <v>4</v>
       </c>
@@ -711,19 +570,14 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>120</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43509</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11">
         <v>4</v>
       </c>
@@ -731,19 +585,14 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>120</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43516</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12">
         <v>5</v>
       </c>
@@ -756,14 +605,9 @@
       <c r="E12">
         <v>120</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43516</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13">
         <v>5</v>
       </c>
@@ -771,19 +615,14 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43516</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14">
         <v>5</v>
       </c>
@@ -791,19 +630,14 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43521</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15">
         <v>6</v>
       </c>
@@ -814,16 +648,11 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>120</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43521</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16">
         <v>6</v>
       </c>
@@ -831,19 +660,14 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>120</v>
       </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43523</v>
-      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
       <c r="B17">
         <v>6</v>
       </c>
@@ -851,19 +675,14 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43528</v>
-      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
       <c r="B18">
         <v>7</v>
       </c>
@@ -874,16 +693,11 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>120</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43528</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
       <c r="B19">
         <v>7</v>
       </c>
@@ -891,19 +705,14 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43528</v>
-      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -911,19 +720,14 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43530</v>
-      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
       <c r="B21">
         <v>7</v>
       </c>
@@ -931,19 +735,14 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43535</v>
-      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
       <c r="B22">
         <v>8</v>
       </c>
@@ -954,16 +753,11 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>120</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43535</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
       <c r="B23">
         <v>8</v>
       </c>
@@ -971,19 +765,14 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>43535</v>
-      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
       <c r="B24">
         <v>8</v>
       </c>
@@ -991,19 +780,14 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>43537</v>
-      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
       <c r="B25">
         <v>8</v>
       </c>
@@ -1011,19 +795,14 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>120</v>
       </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>43549</v>
-      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
       <c r="B26">
         <v>10</v>
       </c>
@@ -1034,16 +813,11 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>120</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>43549</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
       <c r="B27">
         <v>10</v>
       </c>
@@ -1051,19 +825,14 @@
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>60</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>43549</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
       <c r="B28">
         <v>10</v>
       </c>
@@ -1071,19 +840,14 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>60</v>
       </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>43551</v>
-      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
       <c r="B29">
         <v>10</v>
       </c>
@@ -1091,19 +855,14 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <v>240</v>
       </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>43556</v>
-      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
       <c r="B30">
         <v>11</v>
       </c>
@@ -1114,16 +873,11 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>120</v>
-      </c>
-      <c r="F30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>43556</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
       <c r="B31">
         <v>11</v>
       </c>
@@ -1131,19 +885,14 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>60</v>
-      </c>
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>43556</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
       <c r="B32">
         <v>11</v>
       </c>
@@ -1151,19 +900,14 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>60</v>
-      </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43558</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
       <c r="B33">
         <v>11</v>
       </c>
@@ -1171,19 +915,14 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>43563</v>
-      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
       <c r="B34">
         <v>12</v>
       </c>
@@ -1194,16 +933,11 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>120</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>43563</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
       <c r="B35">
         <v>12</v>
       </c>
@@ -1211,19 +945,14 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>60</v>
-      </c>
-      <c r="F35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>43565</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
       <c r="B36">
         <v>12</v>
       </c>
@@ -1231,19 +960,14 @@
         <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>120</v>
       </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>43570</v>
-      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
       <c r="B37">
         <v>13</v>
       </c>
@@ -1254,16 +978,11 @@
         <v>4</v>
       </c>
       <c r="E37">
-        <v>120</v>
-      </c>
-      <c r="F37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>43570</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
       <c r="B38">
         <v>13</v>
       </c>
@@ -1271,19 +990,14 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>120</v>
-      </c>
-      <c r="F38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>43572</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
       <c r="B39">
         <v>13</v>
       </c>
@@ -1291,19 +1005,14 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>43577</v>
-      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
       <c r="B40">
         <v>14</v>
       </c>
@@ -1314,16 +1023,11 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>120</v>
-      </c>
-      <c r="F40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>43577</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
       <c r="B41">
         <v>14</v>
       </c>
@@ -1331,19 +1035,14 @@
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>60</v>
-      </c>
-      <c r="F41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>43577</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
       <c r="B42">
         <v>14</v>
       </c>
@@ -1351,19 +1050,14 @@
         <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>60</v>
-      </c>
-      <c r="F42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>43579</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
       <c r="B43">
         <v>14</v>
       </c>
@@ -1371,19 +1065,14 @@
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43584</v>
-      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
       <c r="B44">
         <v>15</v>
       </c>
@@ -1391,19 +1080,14 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>120</v>
-      </c>
-      <c r="F44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43586</v>
-      </c>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
       <c r="B45">
         <v>15</v>
       </c>
@@ -1411,19 +1095,14 @@
         <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>120</v>
       </c>
-      <c r="F45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>43591</v>
-      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
       <c r="B46">
         <v>16</v>
       </c>
@@ -1431,19 +1110,14 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>43598</v>
-      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
       <c r="B47">
         <v>17</v>
       </c>
@@ -1451,13 +1125,10 @@
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>240</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
